--- a/target_articles.xlsx
+++ b/target_articles.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>公众号名称</t>
   </si>
@@ -25,47 +38,739 @@
     <t>备注</t>
   </si>
   <si>
+    <t>钟山清风</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s?__biz=Mzg3MzcwMjI5NQ==&amp;mid=2247521212&amp;idx=1&amp;sn=2d7cae536e0ced5e4f59ded16b88ab30&amp;chksm=cf77a61131b97056fa39d8d9863d17ebd6c23a14e37c3dfd8cdcc5bb00fe2c549e215b8928d8&amp;scene=27#wechat_redirect</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>南京党建</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI2OTMwNzU5Nw==&amp;mid=2247686085&amp;idx=3&amp;sn=55bd6760980f3b629264d1854f8a8385&amp;chksm=eaee0c67dd9985714f28c6bffb0e6dd9eb56b7c2d2bba40844197253640266a5aa97aee8466d#rd</t>
+  </si>
+  <si>
+    <t>南京发布</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5MTczODg0MA==&amp;mid=2649921617&amp;idx=1&amp;sn=b8940de4296f41767cb743a05c08630c&amp;chksm=beb6c6e689c14ff0dacf63b53e418b30245b41f98b73a2b32057dd649323a09fd81c2502d736#rd</t>
+  </si>
+  <si>
+    <t>南京社会工作</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzkzNjY5OTc1MA==&amp;mid=2247508822&amp;idx=1&amp;sn=18581ad471782a2fbbe68af7c92feb9a&amp;chksm=c298515ff5efd849e4641f2b690db832aa0e6d35eaa49c8aa0f9daaf3e546747aa11ae81d2c5#rd</t>
+  </si>
+  <si>
+    <t>网信南京</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIyMTU5NzkxMQ==&amp;mid=2247533375&amp;idx=1&amp;sn=630f1c7e5e6f16110ba841a4ba9e7162&amp;chksm=e8385a87df4fd391fa4f8f38970f5543f38abf0d864719101a69023d0ec5347c24eaa357f068#rd</t>
+  </si>
+  <si>
+    <t>南京市保密协会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIxNDYzMDU3Mg==&amp;mid=2247483832&amp;idx=1&amp;sn=e3c28f106266d4791aab3f40bd7d41b8&amp;chksm=97a5e87ba0d2616dee94b2e6ac24928f075bd2fac39d20fb2bbc4f7466c49b321606fa6e88de#rd</t>
+  </si>
+  <si>
+    <t>南京市中级人民法院</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA5OTIwMDMyNg==&amp;mid=2656314333&amp;idx=1&amp;sn=753dad2f6228d122b455b1bb06dfcc0a&amp;chksm=8b257ff4bc52f6e265329b08867a1f93dad184c2387017518cbcfff07dc6cb54b4c29b6258fe#rd</t>
+  </si>
+  <si>
+    <t>南京检察</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA4NDIwNDMwMA==&amp;mid=2653835071&amp;idx=1&amp;sn=cc8cf38061d7d6fcc3ebe05dd8f40121&amp;chksm=8430215cb347a84a1a325532967bf3ec9aa6b593cb7f6e60e49eba5e6c61458705f0196be609#rd</t>
+  </si>
+  <si>
+    <t>南京市发展和改革委员会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIxNzc1ODMwOA==&amp;mid=2247682362&amp;idx=1&amp;sn=6caeefc8fb4c176d242ae2ee17aeb0ac&amp;chksm=97f8a631a08f2f2706fe34844d2cf1e42feb8a7a7917e696374955bd23b64130319d93bdfea9#rd</t>
+  </si>
+  <si>
+    <t>南京教育发布</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI2MDEwMTQzNw==&amp;mid=2651052993&amp;idx=1&amp;sn=bc5009f713767c2ac39400347c70059c&amp;chksm=f199bf93c6ee36854a3db4bd3ef874b78ca5592baf56e0d510883a1562c56f90775d2aafeaed#rd</t>
+  </si>
+  <si>
+    <t>南京市工信局</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI1OTE2NzUxNQ==&amp;mid=2665938395&amp;idx=1&amp;sn=8a05d341c9900a45ae691333362eb946&amp;chksm=f16f59afc618d0b9360c7ea4451f8ecf6b35ff34c37ef301cff58d65f2f17f6a8b3d14164652#rd</t>
+  </si>
+  <si>
+    <t>南京警方</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI2NDIzMzc3Nw==&amp;mid=2247869690&amp;idx=1&amp;sn=11191456c1a9d5d930f1a385c2871b68&amp;chksm=eaa0d2a4ddd75bb2309e8c8eac541bfbc8a2a4519ad5bd98fde6ad96e532cf17dc9fc7cb72a5#rd</t>
+  </si>
+  <si>
+    <t>南京人社</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzkyMDI5ODI2NA==&amp;mid=2247515544&amp;idx=1&amp;sn=289953e8037a1c3832a3122a42c0e0cd&amp;chksm=c1960beff6e182f9c755dd907f1546d96cb7d0958a637e9e9fa18474bcf60dfcde736284c925#rd</t>
+  </si>
+  <si>
+    <t>南京生态环境</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA5OTY3NTMxNg==&amp;mid=2651197807&amp;idx=1&amp;sn=a3d66872eedcef5db73ac04ef33d989c&amp;chksm=8b0c0cb4bc7b85a27815fd810970b564c12519dd58fb94725dc9a207a735a3877e3c4ce19992#rd</t>
+  </si>
+  <si>
+    <t>南京交通</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIyMzIwMjQ3MA==&amp;mid=2652089985&amp;idx=1&amp;sn=9903aa6f2874a33097e42bf8e1ed1872&amp;chksm=f3c6d348c4b15a5e1eceda164dff7df5386ba73a5964fe3d0177978f2d7b978ce1f23eb5c2a0#rd</t>
+  </si>
+  <si>
+    <t>南京水务</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5MDM3MTg4NQ==&amp;mid=2651371303&amp;idx=1&amp;sn=cff290e6aac11ab51e28069c76e880bd&amp;chksm=bdb9ce658ace4773415afc3561f81623574aa8c732ef3fa54a82b4c92e4b285137f6e05f993a#rd</t>
+  </si>
+  <si>
+    <t>南京市城管局</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI3OTM3MDkzNA==&amp;mid=2247564011&amp;idx=1&amp;sn=e94d40f840abcb2aedaf3f93eafa8372&amp;chksm=eb4b7732dc3cfe24e9d2c8c4075e9d8b23edd57f84c7e6ff8510365992e761a0d21e2988bc70#rd</t>
+  </si>
+  <si>
+    <t>南京美丽乡村</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIxMDUwMDUwMQ==&amp;mid=2247521900&amp;idx=1&amp;sn=7718b37c481a1948c6ff820192cf3207&amp;chksm=97617896a016f180f83bc89bd8f8ae968e92b0b67273d0c0f71340d2a34bcb92436000b6e147#rd</t>
+  </si>
+  <si>
+    <t>南京应急管理</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI0NjQwMjE4Ng==&amp;mid=2247688440&amp;idx=1&amp;sn=1b728e419d1fcbadc2c2e132bd18e976&amp;chksm=e9b27d1ddec5f40b58ab6491fe0f56b49c4fce971a3a7f633241cf66c0317edfa5364d007f61#rd</t>
+  </si>
+  <si>
+    <t>南京市数据局</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzU0MTY4NzM5OQ==&amp;mid=2247585386&amp;idx=1&amp;sn=8518009d51cad1974b9d91523b5b44e6&amp;chksm=fb25e562cc526c741f7c1bd68c4c43172b78c1ae687af32fe76682203c1e484ec855dccf6331#rd</t>
+  </si>
+  <si>
     <t>南京市场监管</t>
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s?__biz=MjM5Njk4NTg1OA==&amp;mid=2652461510&amp;idx=1&amp;sn=460f53668b40ef3e0dbc3c0c364ebe90&amp;chksm=bd0d14ab8a7a9dbd1685d27b7c5953d90d5aa86cb8368da5ea6358444dce99efe0ef1f9e7aa3#rd</t>
+  </si>
+  <si>
+    <t>南京市信访局</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIxNDcxNzA4OA==&amp;mid=2247488056&amp;idx=1&amp;sn=91ae36f7747ecf933a3814470fe51584&amp;chksm=97a215f7a0d59ce1505f4bdaa2b7c423c58cc35e638b606391a7d9e9f450962c1b855e1ff369#rd</t>
+  </si>
+  <si>
+    <t>南京税务</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5NTkxNDU5Nw==&amp;mid=2650808386&amp;idx=1&amp;sn=968d6981cb041399053104db0fd8ca79&amp;chksm=bd05b6488a723f5e7243ed8f14aa4f93acc11b592c6e837bfac98061b8740f039d4f3305182f#rd</t>
+  </si>
+  <si>
+    <t>南京消防</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5OTA1OTkyNA==&amp;mid=2655081164&amp;idx=1&amp;sn=ea5452887a8d282df2c94a2c8d7d797f&amp;chksm=bd74ba778a033361ba354f790571b09dab91002d9bf14daaa5add894b62803eab798f5daf8b3#rd</t>
+  </si>
+  <si>
+    <t>南京工会会员</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI5NjIyNDU4Mg==&amp;mid=2247667614&amp;idx=1&amp;sn=4488f6e1afcbdb1b49eec9f270562f5e&amp;chksm=ec4b9db7db3c14a1943b9f0e52b6650c218685563b802583089ce84c48d54580c69e663b934c#rd</t>
+  </si>
+  <si>
+    <t>青春南京</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5NDg4NzAyMQ==&amp;mid=2650568247&amp;idx=1&amp;sn=f122dfa78fd5d79d0413c48c7f2f664a&amp;chksm=be88323589ffbb23a3b8693c03b2867b211309e68758c5f85d3e15f4dc8dba0d5480a3412abc#rd</t>
+  </si>
+  <si>
+    <t>南京妇联</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5NDA3NjExMA==&amp;mid=2652855775&amp;idx=1&amp;sn=5464c65df68911a7bbb6b322b08ab4a3&amp;chksm=bd66b97e8a11306841d82ea78d56551cd0f44e637a1025edfc08431b82c358a03b194577f110#rd</t>
+  </si>
+  <si>
+    <t>新宁商</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzAwNzE3NjgwMA==&amp;mid=2649713103&amp;idx=1&amp;sn=23257505d87439a3059faac707f49e17&amp;chksm=8319dec0b46e57d6eedfaebd6c2b3083bba8ada921907951fce667f30e8ee82544149db0d65d#rd</t>
+  </si>
+  <si>
+    <t>南京市残疾人联合会</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzU2MTQ2MDE5OQ==&amp;mid=2247567892&amp;idx=1&amp;sn=9639c9464cea66b9caa7d7d316b094f9&amp;chksm=fc7bec9ccb0c658a065a4fd8be47fd22591cc463e3972acc708e89186d370175a0c880db0455#rd</t>
+  </si>
+  <si>
+    <t>南京地铁</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5NTU2MzY5Mg==&amp;mid=2651452939&amp;idx=1&amp;sn=78da0c4ed71938a4967641f59eaae78d&amp;chksm=bd0bc7c88a7c4edec0095a2bcb4c4cbd27b29d4bd66ec3be440f386aaaede0dffc1b382f197a#rd</t>
+  </si>
+  <si>
+    <t>南京市城建控股公司</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzU5NDk3Nzc4MQ==&amp;mid=2247498336&amp;idx=1&amp;sn=0f86811761b24c4efd1523f4ccb8161f&amp;chksm=fe7a4cfac90dc5ec0b4807c787608a451099c8e34bf45a8bc58347787c8e25556f3ac01db55e#rd</t>
+  </si>
+  <si>
+    <t>南京市交通集团</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI2NDMwMTc0Mg==&amp;mid=2247533124&amp;idx=1&amp;sn=bb5defd4afd5338b96e11e9328371330&amp;chksm=eaacbf85dddb36930b5188ca9e5c6285ee8c42916252d9d14c15bf8699ade72d594e74bc5122#rd</t>
+  </si>
+  <si>
+    <t>河西集团</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIxOTI5OTQ2Nw==&amp;mid=2247628784&amp;idx=1&amp;sn=fae3bfcaaf4d24a8c22dc793cc0f0a21&amp;chksm=97d1dc14a0a655025f55ea47c9f20cf71428c9278da4f19b4f69116ed59bbab648c58b3b4513#rd</t>
+  </si>
+  <si>
+    <t>南京水务集团有限公司</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5Njg1ODg4OQ==&amp;mid=2652343407&amp;idx=1&amp;sn=f9905d5b74e313f2be1d56f4c5f2fe87&amp;chksm=bd01f1098a76781f9c938fe5dcd42ec2e5d6461018b453f83ace13bdf9dd8d3ebf7da77374f8#rd</t>
+  </si>
+  <si>
+    <t>南京大学</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzAxODAzMjQ1NQ==&amp;mid=2707714753&amp;idx=1&amp;sn=01361d8fc7ce55a2daac86981d22a8c0&amp;chksm=bf4ca0e9883b29ff29694c8c41f8b161d93fb63e11d3058fd19641dfc2cabc212e35395c8881#rd</t>
+  </si>
+  <si>
+    <t>东南大学</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5NjQxMDE2MQ==&amp;mid=2651032139&amp;idx=1&amp;sn=3d489fc4095cd54470d54b54daab2f6a&amp;chksm=bd1e8c158a6905039a08f4ed8052c50f9c5c328969331ba43a1d6bbfcf2a3e89f455ecce59fc#rd</t>
+  </si>
+  <si>
+    <t>南京工业大学</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA4MTU0OTUwMg==&amp;mid=2650454629&amp;idx=1&amp;sn=dc7ce3eb50f485064ac627b4c532983b&amp;chksm=879d5bb4b0ead2a299e1bede1e0249abac2298bdc684126e778e7e0692b7a17d92fb08833c9e#rd</t>
+  </si>
+  <si>
+    <t>河海大学</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA4MTY3MzgwMw==&amp;mid=2654052108&amp;idx=1&amp;sn=03036a29d3dc8f44a87539cdb7264d5b&amp;chksm=84545428b323dd3e097748a76cbda6b5bbaf99003827b418dfdafd201e74ad0212647f05f1d7#rd</t>
+  </si>
+  <si>
+    <t>南京师范大学</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA5NDEyNDIzOQ==&amp;mid=2654238000&amp;idx=1&amp;sn=4286ea76ed275db5ac578a8bcf368786&amp;chksm=8b93b490bce43d86dfcf4e2a123286c8a024f541c1e2d3ec37d538c8386abf400e72baed4436#rd</t>
+  </si>
+  <si>
+    <t>法润玄武</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI0MDU1MjYxOQ==&amp;mid=2247510119&amp;idx=2&amp;sn=92d03780f8c7d4cc6a9cb11ab61d7889&amp;chksm=e91bf7a3de6c7eb504558b2a4050fac16163e62f5a82a8e0211f64a52d770d4d424e263541d8#rd</t>
+  </si>
+  <si>
+    <t>秦淮司法行政</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIzNjM4ODU5NA==&amp;mid=2247512272&amp;idx=1&amp;sn=d28dc75a50c964b23869200f574799ea&amp;chksm=e8da594ddfadd05b9c546fc0ea062968c68c00088d4c3962d0b09a77de0ba32f14613de1db7b#rd</t>
+  </si>
+  <si>
+    <t>南京建邺司法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI0MTQ1MDk3Ng==&amp;mid=2247500441&amp;idx=1&amp;sn=f7bcef297ca89114e1348c7f5c867f15&amp;chksm=e909e816de7e6100584e6fd9343d35237c5cb329e41e444e99acb6ad311b83737c36098ecf54#rd</t>
+  </si>
+  <si>
+    <t>南京鼓楼政法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzkwMDE3NDY2NQ==&amp;mid=2247522596&amp;idx=1&amp;sn=157797c1f854de499a275e24bdd58fbd&amp;chksm=c04adf02f73d56147e28f618310a99fb9766d900b04821768c2158323e8fa680d89e96b7cefc#rd</t>
+  </si>
+  <si>
+    <t>法润栖霞</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIwMjM1NTc1Mw==&amp;mid=2247548170&amp;idx=1&amp;sn=56ac1f201d459218024a9d219d0a8099&amp;chksm=96dd984ca1aa115a7469db8d4f401c5f3119965621cfd35de2e1adadb482f938f458f9b7896d#rd</t>
+  </si>
+  <si>
+    <t>雨花司法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI4MTMwNDY3NA==&amp;mid=2247544684&amp;idx=2&amp;sn=ee23948433c816bc0616572d322a1737&amp;chksm=eba92461dcdead77bee6ed2a6f90ee7824edab22aab2d8c2df6e984090d4cd4eb5c2173b662d#rd</t>
+  </si>
+  <si>
+    <t>江宁司法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MjM5MDE4MDI0Nw==&amp;mid=2652140303&amp;idx=1&amp;sn=74a10900f46e96be6567975b1d1ccd59&amp;chksm=bda865f78adfece121715d85d10271b02fb19ce45ba1cfd5135e99209e0775ba3a82914ee28b#rd</t>
+  </si>
+  <si>
+    <t>浦口普法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzAwNDUwODY5Mg==&amp;mid=2452706749&amp;idx=1&amp;sn=b59ee1711a93713adc69fbbdc9b557c6&amp;chksm=8cef28c6bb98a1d09cc437733de4ca183767c6e852a2fba8c0a86e699900e8cda2f1280fbac5#rd</t>
+  </si>
+  <si>
+    <t>六合智慧普法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzIwMjIwNjg1NA==&amp;mid=2653000656&amp;idx=1&amp;sn=b4dc76b3a98d72e1e3a9ea0b887c3f55&amp;chksm=8d370839ba40812f348ef5b205f702934f9b438105efb4941c8e061a38edf9e42ea9f271267e#rd</t>
+  </si>
+  <si>
+    <t>溧水普法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzI1MTIwMDE1Mg==&amp;mid=2247552808&amp;idx=1&amp;sn=0d57ed34d58bfd00bcbbe68121b91ad3&amp;chksm=e9f4d8dfde8351c94e4cc45298542c2206df2b1a016064d1273d1a04e2872df78b458a609884#rd</t>
+  </si>
+  <si>
+    <t>高淳司法</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzAwODQ3MTcxNQ==&amp;mid=2651347820&amp;idx=1&amp;sn=656b7fca2cbe9b0801ac7c43c020e78c&amp;chksm=8092aea0b7e527b6b41f09a82eec89d3c2acfca030596613c9a5c8d0df58477909707f1e4062#rd</t>
+  </si>
+  <si>
+    <t>江北新区综合治理</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzU5NzgzNDIxMg==&amp;mid=2247559103&amp;idx=1&amp;sn=2c5852e6b51648f5daacb7811d283879&amp;chksm=fe4ec734c9394e2269d93b9e74118209c0a4b3dbad91300cb5989f2847abae51921b7d869bfa#rd</t>
+  </si>
+  <si>
+    <t>中建安装南京公司</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzU4ODQ1NjgxNQ==&amp;mid=2247514759&amp;idx=1&amp;sn=0049dc4cde6c6227cd2e1b14cd43ff28&amp;chksm=fdde8c87caa90591634570bf100852d2d6aff3218c4474ce4d5177ed0099ad999f4991f8b8fc#rd</t>
+  </si>
+  <si>
+    <t>扬子国投</t>
+  </si>
+  <si>
+    <t>http://mp.weixin.qq.com/s?__biz=MzA4ODQzMzY3OQ==&amp;mid=2650322562&amp;idx=1&amp;sn=5571d2212ce9b7a05d5ad8dfc4b984b9&amp;chksm=882623e2bf51aaf431ac2c3ab01124c35191cb36986287879b54328d28265f2a26a098d90a34#rd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -88,33 +793,327 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -125,10 +1124,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -166,71 +1165,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -258,7 +1257,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -281,11 +1280,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -294,13 +1293,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -310,7 +1309,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -319,7 +1318,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -328,7 +1327,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -336,10 +1335,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -399,27 +1398,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" style="4" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="73.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="58.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="20.3716814159292" customWidth="1"/>
+    <col min="2" max="2" width="73.1238938053097" customWidth="1"/>
+    <col min="3" max="3" width="58.2477876106195" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
+    <row r="1" ht="22.5" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,16 +1430,440 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="http://mp.weixin.qq.com/s?__biz=MzI2OTMwNzU5Nw==&amp;mid=2247686085&amp;idx=3&amp;sn=55bd6760980f3b629264d1854f8a8385&amp;chksm=eaee0c67dd9985714f28c6bffb0e6dd9eb56b7c2d2bba40844197253640266a5aa97aee8466d#rd"/>
+    <hyperlink ref="B13" r:id="rId2" display="http://mp.weixin.qq.com/s?__biz=MzI2NDIzMzc3Nw==&amp;mid=2247869690&amp;idx=1&amp;sn=11191456c1a9d5d930f1a385c2871b68&amp;chksm=eaa0d2a4ddd75bb2309e8c8eac541bfbc8a2a4519ad5bd98fde6ad96e532cf17dc9fc7cb72a5#rd" tooltip="http://mp.weixin.qq.com/s?__biz=MzI2NDIzMzc3Nw==&amp;mid=2247869690&amp;idx=1&amp;sn=11191456c1a9d5d930f1a385c2871b68&amp;chksm=eaa0d2a4ddd75bb2309e8c8eac541bfbc8a2a4519ad5bd98fde6ad96e532cf17dc9fc7cb72a5#rd"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>